--- a/viruses/phage_num/marine_deep_subsurface/marine_deep_subsurface_phage_data.xlsx
+++ b/viruses/phage_num/marine_deep_subsurface/marine_deep_subsurface_phage_data.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Engelhardt" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Middelboe" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Remarks</t>
   </si>
@@ -32,14 +33,54 @@
   </si>
   <si>
     <t xml:space="preserve">Phage concentration [virions cm^-3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from Figure 2 in Middelboe et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote abundance [cm^-3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral abundance [cm^-3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -106,8 +147,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,697 +179,700 @@
   </sheetPr>
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>287.3839859</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>64114.3496</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>541.4853066</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>88614.30859</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>530.748758</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>70787.18844</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>905.9068377</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>105458.544</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>1061.528151</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>131992.5613</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>1639.88076</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>93010.5051</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>836.2113646</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>45140.37842</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>1081.783066</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>57918.16001</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>1082.102144</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>76217.6888</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>1040.6755</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>125568.5602</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>1638.123086</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>34271.12002</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>1483.305727</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>24777.94652</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>1266.462335</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>31025.53598</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>960.1996924</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>36051.46001</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>1079.754778</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>10092.72111</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>1547.571348</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>349214.1577</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>2640.759172</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>405338.6566</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>3216.461344</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>222607.2814</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>2638.494572</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>182362.2995</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>2799.25042</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>149341.1146</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>3410.053186</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>95266.73609</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>3212.583165</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>72399.43847</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>3211.721983</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>56407.16484</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>36682.26956</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>306922.2832</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>22836.13052</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>717581.1361</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>30127.95592</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>792626.1111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>29531.37177</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>649171.2494</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29541.66618</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>898008.5706</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>36725.56718</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>920433.6673</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>28420.61196</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>2046571.044</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>55657.56065</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>1151618.986</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>76375.19362</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>1016066.323</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>98738.23286</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>698504.651</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>67847.62599</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>1371112.308</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>118097.472</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>1715172.659</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>171995.5906</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>1757626.984</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>329928.0797</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>423308.7022</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>330007.6981</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>529929.4193</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>500005.6777</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>529631.1462</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>499885.0453</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>423070.4411</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>402587.769</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>1269126.28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>357781.2365</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>2490331.712</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>205646.4414</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>3119924.255</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>245663.6209</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>2430179.386</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>175573.7222</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>3716360.596</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>91447.81115</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>6771179.159</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>387663.4834</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>6757939.974</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>324332.6946</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>5136627.855</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>387601.1285</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>5818000.767</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>501347.9983</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>6426622.338</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>599083.0248</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>6587461.355</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>1517348.835</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>3705516.111</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>1548666.05</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>6745269.178</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>1174190.887</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>8036055.781</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>964337.1278</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>19742525.7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>1272192.268</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>20745308.06</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>3772881.228</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>7260986.111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>3626983.288</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>8226580.583</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>2805439.354</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>11671643.62</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>2395571.091</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>16149027.36</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>2444489.96</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>24075549.53</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>3289664.392</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>27953881.01</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>2351410.64</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>48430849.77</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>6312720.615</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>9548472.333</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>8167902.47</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>14230626.19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>11437152.02</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>18718329.59</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>11672269.47</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>31615306.15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>8015184.5</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>33250547.7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>6843633.948</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>42686729.06</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>6707219.329</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>30859104.34</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>15408024.82</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>58984336.48</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>25781135.9</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>79527087.75</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>14818549.19</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>99632707.07</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>10379587.39</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>110146799.8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>32092688.79</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>276943790.4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>33403335.9</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>423301609.2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>44055209.38</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>346550212.5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>46771957.62</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>543066366</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>57014378.15</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>630633485.2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>53682546.02</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>283745507.2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>130862815.9</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>542309790.1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>138966247.6</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>1063885807</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>156508014.4</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>1235565319</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>136298502.6</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>1547063172</v>
       </c>
     </row>
@@ -833,4 +885,151 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.99426735429822</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>37915026.992765</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>100596756.769052</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10.5274820318726</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>6515586.10363937</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>36152599.9011049</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20.3169395391725</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>3905991.25072876</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>23555537.7526073</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>31.1346278247755</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>6362350.21396141</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>10363438.5349794</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>48.621698993213</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1718470.64882287</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7471107.97316717</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>76.9779235956984</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1780926.49432421</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>7471107.97316717</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>95.8910082522936</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>982308.861816591</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>4867864.72887574</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>